--- a/BaseDeDatos.xlsx
+++ b/BaseDeDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamaJuaD\Box\-Private Folder juan.gama@diageo.com\Calculadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFOUSUARIO\Documents\GitHub\ontradecalculatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D12B642-9A81-4CB3-94A0-BE733736A29C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D700CE27-CF76-4D5A-AE52-5D7175E453CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="19400" windowHeight="10400" firstSheet="3" activeTab="9" xr2:uid="{40E04651-8FB3-4F51-B99E-4FA9306BA3B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{40E04651-8FB3-4F51-B99E-4FA9306BA3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="SUBSEGMENTOS" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,25 @@
     <sheet name="Sheet1 (2)" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet2 (2)" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="165">
   <si>
     <t>ID</t>
   </si>
@@ -240,9 +248,6 @@
     <t>Destilado Internacional o Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Destilado Internacional </t>
-  </si>
-  <si>
     <t>2, 8, 10</t>
   </si>
   <si>
@@ -345,9 +350,6 @@
     <t>13, 17, 12</t>
   </si>
   <si>
-    <t>Destilado Internacional</t>
-  </si>
-  <si>
     <t>1, 9</t>
   </si>
   <si>
@@ -411,9 +413,6 @@
     <t>27, 17, 12, 28</t>
   </si>
   <si>
-    <t>Destilado Internacional o nacional</t>
-  </si>
-  <si>
     <t>BUCHANAN´S 18</t>
   </si>
   <si>
@@ -535,13 +534,16 @@
   </si>
   <si>
     <t>Mojito zacapa</t>
+  </si>
+  <si>
+    <t>Destilado Importado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +567,14 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -596,13 +606,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1416,7 +1427,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.6328125" customWidth="1"/>
     <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
@@ -1451,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1528,31 +1539,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBEC769-31C3-473C-BBD6-51247191B627}">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1">
         <v>2900</v>
@@ -1563,7 +1574,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1">
         <v>18000</v>
@@ -1572,7 +1583,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1">
         <v>34000</v>
@@ -1596,7 +1607,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1645,11 +1656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BC7178-FDC5-4229-8A0B-80153866CEB3}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1796875" customWidth="1"/>
@@ -1682,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1716,7 +1727,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1751,20 +1762,20 @@
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
+      <c r="B7" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1778,11 +1789,11 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1799,10 +1810,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1816,10 +1827,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1834,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1848,91 +1859,91 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1951,11 +1962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9725EB2D-D3B6-4233-850B-25301DCBD9AE}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.7265625" customWidth="1"/>
     <col min="2" max="2" width="26.08984375" customWidth="1"/>
@@ -2009,7 +2020,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2055,7 +2066,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -2103,7 +2114,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2">
         <v>8</v>
@@ -2111,7 +2122,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="str">
         <f>+'Marcas-Estrato-Sov'!B7</f>
-        <v xml:space="preserve">Destilado Internacional </v>
+        <v>Destilado Importado</v>
       </c>
       <c r="F7" s="2">
         <f>+'Marcas-Estrato-Sov'!C7</f>
@@ -2127,10 +2138,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="str">
@@ -2151,7 +2162,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2175,10 +2186,10 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="str">
@@ -2212,121 +2223,121 @@
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -2336,81 +2347,81 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3">
         <v>24</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
@@ -2420,64 +2431,64 @@
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3">
         <v>29</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3">
         <v>30</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -2496,11 +2507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7647B3A3-D648-4B2E-95C8-DF6DEAF75EF7}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
@@ -2523,7 +2534,7 @@
         <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2667,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
@@ -2701,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
@@ -2718,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>46</v>
@@ -2735,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>46</v>
@@ -2752,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>46</v>
@@ -2769,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>46</v>
@@ -2786,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>48</v>
@@ -2803,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>46</v>
@@ -2820,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>46</v>
@@ -2837,7 +2848,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>48</v>
@@ -2854,7 +2865,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>46</v>
@@ -2871,7 +2882,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>46</v>
@@ -2888,7 +2899,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>46</v>
@@ -2905,7 +2916,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>46</v>
@@ -2922,7 +2933,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
@@ -2939,7 +2950,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>48</v>
@@ -2956,7 +2967,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
@@ -2973,7 +2984,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>46</v>
@@ -2990,7 +3001,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>48</v>
@@ -3007,7 +3018,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>46</v>
@@ -3024,7 +3035,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>46</v>
@@ -3044,19 +3055,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0915765C-E3E0-43E7-A0F0-B6E6A179EFD0}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -3067,7 +3078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3078,7 +3089,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3089,7 +3100,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3100,7 +3111,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3122,111 +3133,112 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2">
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4">
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4">
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4">
         <v>35000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4">
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4">
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4">
         <v>20000</v>
@@ -3234,10 +3246,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4">
         <v>30000</v>
@@ -3245,10 +3257,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4">
         <v>30000</v>
@@ -3256,10 +3268,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4">
         <v>20000</v>
@@ -3267,10 +3279,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4">
         <v>45000</v>
@@ -3278,10 +3290,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4">
         <v>390000</v>
@@ -3301,14 +3313,14 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3326,27 +3338,27 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1">
         <v>2900</v>
@@ -3357,7 +3369,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1">
         <v>18000</v>
@@ -3366,7 +3378,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1">
         <v>34000</v>
@@ -3389,36 +3401,36 @@
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
